--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-141244.3364912613</v>
+        <v>-144001.506297045</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>307.4981832303002</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>44.68834848013405</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>167.2128823306835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>290.1947364479174</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>17.49690079789916</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>70.80276983270106</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>98.63122914173753</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>215.0497352822186</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>51.87721125827391</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>102.6951623564298</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>311.0071730774595</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>350.3428925165372</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>48.1426850099454</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>32.66648861725</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238291</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>217.8886059122761</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.54490042790936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>4.444394634327033</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012319</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>3.453391420149873</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238289</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>61.16269384155081</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>57.28101103997177</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>107.3363007608859</v>
       </c>
       <c r="W22" t="n">
-        <v>174.7683347992599</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>9.592641220496477</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>218.7872342765196</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>60.46574022124193</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1544.207285695189</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1175.244768754777</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2652.009345078693</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2652.009345078693</v>
       </c>
       <c r="T2" t="n">
-        <v>2297.041012518761</v>
+        <v>2652.009345078693</v>
       </c>
       <c r="U2" t="n">
-        <v>2043.279227156852</v>
+        <v>2652.009345078693</v>
       </c>
       <c r="V2" t="n">
-        <v>1750.153230744814</v>
+        <v>2320.946457735122</v>
       </c>
       <c r="W2" t="n">
-        <v>1750.153230744814</v>
+        <v>2320.946457735122</v>
       </c>
       <c r="X2" t="n">
-        <v>1750.153230744814</v>
+        <v>2320.946457735122</v>
       </c>
       <c r="Y2" t="n">
-        <v>1750.153230744814</v>
+        <v>1930.807125759311</v>
       </c>
     </row>
     <row r="3">
@@ -4398,28 +4398,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.0202652891861</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>348.0202652891861</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="V4" t="n">
-        <v>348.0202652891861</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="W4" t="n">
-        <v>348.0202652891861</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="X4" t="n">
-        <v>348.0202652891861</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.0202652891861</v>
+        <v>656.6110348804735</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>898.729014069748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>480.7652059679349</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>153.5704860039377</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2479.927136187699</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2127.158480917584</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.692722656504</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6911546495019</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="C7" t="n">
-        <v>380.6911546495019</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="D7" t="n">
-        <v>380.6911546495019</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
         <v>380.6911546495019</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="V7" t="n">
-        <v>380.6911546495019</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="W7" t="n">
-        <v>380.6911546495019</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="X7" t="n">
-        <v>380.6911546495019</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.6911546495019</v>
+        <v>527.5811021474123</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>920.8570464397878</v>
+        <v>1387.497891571678</v>
       </c>
       <c r="C8" t="n">
-        <v>551.8945294993762</v>
+        <v>1387.497891571678</v>
       </c>
       <c r="D8" t="n">
-        <v>193.6288308926256</v>
+        <v>1387.497891571678</v>
       </c>
       <c r="E8" t="n">
-        <v>193.6288308926256</v>
+        <v>1001.709638973434</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6833301434222</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="G8" t="n">
         <v>173.6359524202537</v>
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4835,19 +4835,19 @@
         <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>1995.071304439191</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>1680.922644764989</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="X8" t="n">
-        <v>1307.45688650391</v>
+        <v>1387.497891571678</v>
       </c>
       <c r="Y8" t="n">
-        <v>1307.45688650391</v>
+        <v>1387.497891571678</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>520.6009841418684</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1161.146333608973</v>
+        <v>1646.937527316293</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>2030.071016909819</v>
       </c>
       <c r="O9" t="n">
         <v>2189.58332957858</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>543.9329077138588</v>
+        <v>524.0237553464166</v>
       </c>
       <c r="C10" t="n">
-        <v>374.9967247859519</v>
+        <v>355.0875724185097</v>
       </c>
       <c r="D10" t="n">
-        <v>326.3677500284313</v>
+        <v>355.0875724185097</v>
       </c>
       <c r="E10" t="n">
-        <v>178.4546564460382</v>
+        <v>355.0875724185097</v>
       </c>
       <c r="F10" t="n">
-        <v>178.4546564460382</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="G10" t="n">
-        <v>178.4546564460382</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="U10" t="n">
-        <v>764.7254868573889</v>
+        <v>813.4409253833771</v>
       </c>
       <c r="V10" t="n">
-        <v>764.7254868573889</v>
+        <v>813.4409253833771</v>
       </c>
       <c r="W10" t="n">
-        <v>764.7254868573889</v>
+        <v>524.0237553464166</v>
       </c>
       <c r="X10" t="n">
-        <v>764.7254868573889</v>
+        <v>524.0237553464166</v>
       </c>
       <c r="Y10" t="n">
-        <v>543.9329077138588</v>
+        <v>524.0237553464166</v>
       </c>
     </row>
     <row r="11">
@@ -5033,31 +5033,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1789.822296052218</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1500.405126015257</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>961.4446166151457</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>792.5084336872388</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>642.3917942749031</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>494.47870069251</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>347.5887531945996</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>180.3926539094795</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487565</v>
+        <v>2376.429105670895</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487565</v>
+        <v>2156.827640693836</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831763</v>
+        <v>1867.752414038034</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625876</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588915</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.885660588915</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y16" t="n">
-        <v>1143.093081445385</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851653</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>696.7084350851653</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>546.5917956728296</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>546.5917956728296</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855602</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.2406881998</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993913</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956953</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058935</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154051</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2160.315914855604</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1905.631426649717</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5966,37 +5966,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,7 +6236,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>702.4944101284095</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>533.5582272005026</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>923.2869892719397</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>702.4944101284095</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908939</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7391,46 +7391,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1550.665004989558</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.574735228845</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075811</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>283.1760056204237</v>
+        <v>186.3401494352138</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>47.18485839038271</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>37.5575220222175</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>7.82104947676109</v>
       </c>
       <c r="Y13" t="n">
-        <v>166.0397529241854</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.8503182118968</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>177.5728945814947</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>84.25835418138044</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>194.8566322838562</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>144.8013425629421</v>
       </c>
       <c r="W22" t="n">
-        <v>111.7546635373311</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>136.8413214260727</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>6.922421112517583</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1078173.48715971</v>
+        <v>1078173.487159709</v>
       </c>
     </row>
     <row r="3">
@@ -26314,31 +26314,31 @@
         <v>274720.9666028987</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991065</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="E2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="F2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="G2" t="n">
         <v>302679.9748837521</v>
       </c>
-      <c r="F2" t="n">
-        <v>302679.9748837521</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="J2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="K2" t="n">
         <v>302679.9748837523</v>
-      </c>
-      <c r="I2" t="n">
-        <v>302679.9748837521</v>
-      </c>
-      <c r="J2" t="n">
-        <v>302679.9748837524</v>
-      </c>
-      <c r="K2" t="n">
-        <v>302679.9748837522</v>
       </c>
       <c r="L2" t="n">
         <v>302679.9748837522</v>
@@ -26350,10 +26350,10 @@
         <v>302679.9748837523</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26378,13 +26378,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363162</v>
       </c>
     </row>
     <row r="4">
@@ -26424,7 +26424,7 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682745</v>
@@ -26433,28 +26433,28 @@
         <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682775</v>
+        <v>5677.536566682766</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682753</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682767</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
         <v>13668.39582977621</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-557542.616780529</v>
+        <v>-557763.7480945037</v>
       </c>
       <c r="C6" t="n">
-        <v>15109.17017266378</v>
+        <v>15109.17017266341</v>
       </c>
       <c r="D6" t="n">
-        <v>-140694.6359211315</v>
+        <v>-140694.6359211314</v>
       </c>
       <c r="E6" t="n">
-        <v>-575172.7828876441</v>
+        <v>-575207.5208130797</v>
       </c>
       <c r="F6" t="n">
-        <v>195879.9084931622</v>
+        <v>195845.1705677267</v>
       </c>
       <c r="G6" t="n">
-        <v>195879.9084931624</v>
+        <v>195845.1705677263</v>
       </c>
       <c r="H6" t="n">
-        <v>195879.9084931622</v>
+        <v>195845.1705677268</v>
       </c>
       <c r="I6" t="n">
-        <v>195879.9084931624</v>
+        <v>195845.1705677265</v>
       </c>
       <c r="J6" t="n">
-        <v>19456.68930056952</v>
+        <v>19421.95137513362</v>
       </c>
       <c r="K6" t="n">
-        <v>195879.9084931623</v>
+        <v>195845.1705677269</v>
       </c>
       <c r="L6" t="n">
-        <v>195879.9084931624</v>
+        <v>195845.1705677267</v>
       </c>
       <c r="M6" t="n">
-        <v>71671.39778510384</v>
+        <v>71636.6598596682</v>
       </c>
       <c r="N6" t="n">
-        <v>195879.9084931624</v>
+        <v>195845.1705677267</v>
       </c>
       <c r="O6" t="n">
-        <v>195879.9084931622</v>
+        <v>195845.1705677265</v>
       </c>
       <c r="P6" t="n">
-        <v>171630.4340217826</v>
+        <v>171630.4340217827</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26972,14 +26972,14 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>9.790054094677657</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>49.23543802697426</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>207.5382046601851</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>215.4791044092767</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>53.30008710312372</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>112.7025231879163</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>160.268327691745</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>149.4424809673982</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>38.23379563995348</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>19.38820816193186</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.4727880082669</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28059,25 +28059,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>253.594166040847</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28324,10 +28324,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31838,19 +31838,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,7 +31859,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>147.4873481937412</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>381.2855185329316</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,13 +33983,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>483.8393810271557</v>
+        <v>387.0035248419458</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010436</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>20.64972152707456</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>249.9438064495983</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,13 +37631,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
